--- a/experiments/evaluation/llm-seed/roberta-base_15/original_remove/rem5/123/word_level_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/original_remove/rem5/123/word_level_predictions_123.xlsx
@@ -941,7 +941,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G10" s="2" t="b">
@@ -965,7 +965,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -993,7 +993,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G11" s="2" t="b">
@@ -1017,7 +1017,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -1750,834 +1750,834 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="n">
-        <v>1</v>
-      </c>
-      <c r="B26" t="inlineStr">
+      <c r="A26" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B26" s="2" t="inlineStr">
         <is>
           <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C26" s="2" t="inlineStr">
         <is>
           <t>Return</t>
         </is>
       </c>
-      <c r="D26" t="n">
+      <c r="D26" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="E26" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="F26" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G26" t="b">
-        <v>1</v>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I26" t="b">
-        <v>1</v>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K26" t="b">
-        <v>1</v>
-      </c>
-      <c r="L26" t="inlineStr">
+      <c r="G26" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="n">
-        <v>1</v>
-      </c>
-      <c r="B27" t="inlineStr">
+      <c r="A27" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B27" s="2" t="inlineStr">
         <is>
           <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="C27" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D27" t="n">
+      <c r="D27" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G27" t="b">
-        <v>1</v>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I27" t="b">
-        <v>1</v>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K27" t="b">
-        <v>1</v>
-      </c>
-      <c r="L27" t="inlineStr">
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="n">
-        <v>1</v>
-      </c>
-      <c r="B28" t="inlineStr">
+      <c r="A28" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B28" s="2" t="inlineStr">
         <is>
           <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C28" s="2" t="inlineStr">
         <is>
           <t>home</t>
         </is>
       </c>
-      <c r="D28" t="n">
+      <c r="D28" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G28" t="b">
-        <v>1</v>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I28" t="b">
-        <v>1</v>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K28" t="b">
-        <v>1</v>
-      </c>
-      <c r="L28" t="inlineStr">
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="n">
-        <v>1</v>
-      </c>
-      <c r="B29" t="inlineStr">
+      <c r="A29" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B29" s="2" t="inlineStr">
         <is>
           <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="C29" s="2" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D29" t="n">
+      <c r="D29" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I29" t="b">
-        <v>1</v>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K29" t="b">
-        <v>1</v>
-      </c>
-      <c r="L29" t="inlineStr">
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="n">
-        <v>1</v>
-      </c>
-      <c r="B30" t="inlineStr">
+      <c r="A30" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B30" s="2" t="inlineStr">
         <is>
           <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="C30" s="2" t="inlineStr">
         <is>
           <t>land</t>
         </is>
       </c>
-      <c r="D30" t="n">
+      <c r="D30" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I30" t="b">
-        <v>1</v>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K30" t="b">
-        <v>1</v>
-      </c>
-      <c r="L30" t="inlineStr">
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="n">
-        <v>1</v>
-      </c>
-      <c r="B31" t="inlineStr">
+      <c r="A31" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B31" s="2" t="inlineStr">
         <is>
           <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="C31" s="2" t="inlineStr">
         <is>
           <t>promptly</t>
         </is>
       </c>
-      <c r="D31" t="n">
+      <c r="D31" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="E31" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G31" t="b">
-        <v>1</v>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I31" t="b">
-        <v>1</v>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K31" t="b">
-        <v>1</v>
-      </c>
-      <c r="L31" t="inlineStr">
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="n">
-        <v>1</v>
-      </c>
-      <c r="B32" t="inlineStr">
+      <c r="A32" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B32" s="2" t="inlineStr">
         <is>
           <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="C32" s="2" t="inlineStr">
         <is>
           <t>Check</t>
         </is>
       </c>
-      <c r="D32" t="n">
+      <c r="D32" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="E32" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G32" t="b">
-        <v>1</v>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I32" t="b">
-        <v>1</v>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K32" t="b">
-        <v>1</v>
-      </c>
-      <c r="L32" t="inlineStr">
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L32" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="n">
-        <v>1</v>
-      </c>
-      <c r="B33" t="inlineStr">
+      <c r="A33" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B33" s="2" t="inlineStr">
         <is>
           <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="C33" s="2" t="inlineStr">
         <is>
           <t>whether</t>
         </is>
       </c>
-      <c r="D33" t="n">
+      <c r="D33" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G33" t="b">
-        <v>1</v>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I33" t="b">
-        <v>1</v>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K33" t="b">
-        <v>1</v>
-      </c>
-      <c r="L33" t="inlineStr">
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L33" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="n">
-        <v>1</v>
-      </c>
-      <c r="B34" t="inlineStr">
+      <c r="A34" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B34" s="2" t="inlineStr">
         <is>
           <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="C34" s="2" t="inlineStr">
         <is>
           <t>propeller</t>
         </is>
       </c>
-      <c r="D34" t="n">
+      <c r="D34" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G34" t="b">
-        <v>1</v>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I34" t="b">
-        <v>1</v>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K34" t="b">
-        <v>1</v>
-      </c>
-      <c r="L34" t="inlineStr">
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L34" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="n">
-        <v>1</v>
-      </c>
-      <c r="B35" t="inlineStr">
+      <c r="A35" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B35" s="2" t="inlineStr">
         <is>
           <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="C35" s="2" t="inlineStr">
         <is>
           <t>on</t>
         </is>
       </c>
-      <c r="D35" t="n">
+      <c r="D35" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G35" t="b">
-        <v>1</v>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I35" t="b">
-        <v>1</v>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K35" t="b">
-        <v>1</v>
-      </c>
-      <c r="L35" t="inlineStr">
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L35" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="n">
-        <v>1</v>
-      </c>
-      <c r="B36" t="inlineStr">
+      <c r="A36" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B36" s="2" t="inlineStr">
         <is>
           <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="C36" s="2" t="inlineStr">
         <is>
           <t>beeping</t>
         </is>
       </c>
-      <c r="D36" t="n">
+      <c r="D36" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G36" t="b">
-        <v>1</v>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I36" t="b">
-        <v>1</v>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K36" t="b">
-        <v>1</v>
-      </c>
-      <c r="L36" t="inlineStr">
+      <c r="E36" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F36" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G36" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H36" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J36" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K36" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L36" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="n">
-        <v>1</v>
-      </c>
-      <c r="B37" t="inlineStr">
+      <c r="A37" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B37" s="2" t="inlineStr">
         <is>
           <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="C37" s="2" t="inlineStr">
         <is>
           <t>ESC</t>
         </is>
       </c>
-      <c r="D37" t="n">
+      <c r="D37" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G37" t="b">
-        <v>1</v>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I37" t="b">
-        <v>1</v>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K37" t="b">
-        <v>1</v>
-      </c>
-      <c r="L37" t="inlineStr">
+      <c r="E37" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F37" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G37" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H37" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J37" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K37" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L37" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="n">
-        <v>1</v>
-      </c>
-      <c r="B38" t="inlineStr">
+      <c r="A38" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B38" s="2" t="inlineStr">
         <is>
           <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="C38" s="2" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D38" t="n">
+      <c r="D38" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G38" t="b">
-        <v>1</v>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I38" t="b">
-        <v>1</v>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K38" t="b">
-        <v>1</v>
-      </c>
-      <c r="L38" t="inlineStr">
+      <c r="E38" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F38" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H38" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J38" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K38" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L38" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="n">
-        <v>1</v>
-      </c>
-      <c r="B39" t="inlineStr">
+      <c r="A39" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B39" s="2" t="inlineStr">
         <is>
           <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="C39" s="2" t="inlineStr">
         <is>
           <t>warped</t>
         </is>
       </c>
-      <c r="D39" t="n">
+      <c r="D39" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G39" t="b">
-        <v>1</v>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I39" t="b">
-        <v>1</v>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K39" t="b">
-        <v>1</v>
-      </c>
-      <c r="L39" t="inlineStr">
+      <c r="E39" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F39" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G39" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H39" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J39" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K39" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L39" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="n">
-        <v>1</v>
-      </c>
-      <c r="B40" t="inlineStr">
+      <c r="A40" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B40" s="2" t="inlineStr">
         <is>
           <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="C40" s="2" t="inlineStr">
         <is>
           <t>or</t>
         </is>
       </c>
-      <c r="D40" t="n">
+      <c r="D40" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G40" t="b">
-        <v>1</v>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I40" t="b">
-        <v>1</v>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K40" t="b">
-        <v>1</v>
-      </c>
-      <c r="L40" t="inlineStr">
+      <c r="E40" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F40" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G40" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H40" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J40" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K40" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L40" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="n">
-        <v>1</v>
-      </c>
-      <c r="B41" t="inlineStr">
+      <c r="A41" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B41" s="2" t="inlineStr">
         <is>
           <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="C41" s="2" t="inlineStr">
         <is>
           <t>damaged</t>
         </is>
       </c>
-      <c r="D41" t="n">
+      <c r="D41" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="E41" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G41" t="b">
-        <v>1</v>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I41" t="b">
-        <v>1</v>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K41" t="b">
-        <v>1</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F41" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G41" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H41" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J41" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K41" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L41" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -2634,572 +2634,572 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="n">
+      <c r="A43" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" s="2" t="inlineStr">
         <is>
           <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="C43" s="2" t="inlineStr">
         <is>
           <t>GPS</t>
         </is>
       </c>
-      <c r="D43" t="n">
-        <v>0</v>
-      </c>
-      <c r="E43" t="inlineStr">
+      <c r="D43" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="F43" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G43" t="b">
-        <v>1</v>
-      </c>
-      <c r="H43" t="inlineStr">
+      <c r="G43" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H43" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I43" t="b">
-        <v>1</v>
-      </c>
-      <c r="J43" t="inlineStr">
+      <c r="I43" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J43" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K43" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L43" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B44" s="2" t="inlineStr">
+        <is>
+          <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
+        </is>
+      </c>
+      <c r="C44" s="2" t="inlineStr">
+        <is>
+          <t>signal</t>
+        </is>
+      </c>
+      <c r="D44" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E44" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F44" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G44" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H44" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="K43" t="b">
-        <v>1</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
+      <c r="I44" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J44" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K44" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L44" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B45" s="2" t="inlineStr">
         <is>
           <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>signal</t>
-        </is>
-      </c>
-      <c r="D44" t="n">
-        <v>1</v>
-      </c>
-      <c r="E44" t="inlineStr">
+      <c r="C45" s="2" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
+      <c r="D45" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E45" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="F45" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="G45" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H45" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I45" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J45" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K45" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L45" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B46" s="2" t="inlineStr">
+        <is>
+          <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E46" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="F46" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G44" t="b">
-        <v>1</v>
-      </c>
-      <c r="H44" t="inlineStr">
+      <c r="G46" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H46" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I44" t="b">
-        <v>1</v>
-      </c>
-      <c r="J44" t="inlineStr">
+      <c r="I46" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J46" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K46" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L46" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B47" s="2" t="inlineStr">
+        <is>
+          <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="inlineStr">
+        <is>
+          <t>unable</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E47" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F47" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G47" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H47" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="K44" t="b">
-        <v>1</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
+      <c r="I47" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J47" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K47" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L47" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B48" s="2" t="inlineStr">
         <is>
           <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>low</t>
-        </is>
-      </c>
-      <c r="D45" t="n">
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E48" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F48" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G48" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H48" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I48" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J48" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K48" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L48" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="B49" s="2" t="inlineStr">
+        <is>
+          <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="inlineStr">
+        <is>
+          <t>auto</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E49" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F49" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G49" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H49" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I49" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J49" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K49" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L49" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B50" s="2" t="inlineStr">
+        <is>
+          <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>hover</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E50" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H50" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I50" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J50" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K50" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L50" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B51" s="2" t="inlineStr">
+        <is>
+          <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t>and</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E51" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F51" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G51" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H51" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I51" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J51" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K51" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L51" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B52" s="2" t="inlineStr">
+        <is>
+          <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>takeoff</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E52" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F52" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G52" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H52" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I52" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J52" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K52" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L52" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B53" s="2" t="inlineStr">
+        <is>
+          <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="inlineStr">
+        <is>
+          <t>restricted</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E53" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="F53" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G45" t="b">
-        <v>1</v>
-      </c>
-      <c r="H45" t="inlineStr">
+      <c r="G53" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H53" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I45" t="b">
-        <v>1</v>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K45" t="b">
-        <v>1</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
-        <v>2</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>Aircraft</t>
-        </is>
-      </c>
-      <c r="D46" t="n">
-        <v>3</v>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G46" t="b">
-        <v>1</v>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I46" t="b">
-        <v>1</v>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K46" t="b">
-        <v>1</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
-        <v>2</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>unable</t>
-        </is>
-      </c>
-      <c r="D47" t="n">
-        <v>4</v>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G47" t="b">
-        <v>1</v>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I47" t="b">
-        <v>1</v>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K47" t="b">
-        <v>1</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
-        <v>2</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>to</t>
-        </is>
-      </c>
-      <c r="D48" t="n">
-        <v>5</v>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G48" t="b">
-        <v>1</v>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I48" t="b">
-        <v>1</v>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K48" t="b">
-        <v>1</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
-        <v>2</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>auto</t>
-        </is>
-      </c>
-      <c r="D49" t="n">
-        <v>6</v>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G49" t="b">
-        <v>1</v>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I49" t="b">
-        <v>1</v>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K49" t="b">
-        <v>1</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n">
-        <v>2</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>hover</t>
-        </is>
-      </c>
-      <c r="D50" t="n">
-        <v>7</v>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G50" t="b">
-        <v>1</v>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I50" t="b">
-        <v>1</v>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K50" t="b">
-        <v>1</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
-        <v>2</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>and</t>
-        </is>
-      </c>
-      <c r="D51" t="n">
-        <v>8</v>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G51" t="b">
-        <v>1</v>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I51" t="b">
-        <v>1</v>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K51" t="b">
-        <v>1</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n">
-        <v>2</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>takeoff</t>
-        </is>
-      </c>
-      <c r="D52" t="n">
-        <v>9</v>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G52" t="b">
-        <v>1</v>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I52" t="b">
-        <v>1</v>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K52" t="b">
-        <v>1</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v>2</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>restricted</t>
-        </is>
-      </c>
-      <c r="D53" t="n">
-        <v>10</v>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G53" t="b">
-        <v>1</v>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I53" t="b">
-        <v>1</v>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K53" t="b">
-        <v>1</v>
-      </c>
-      <c r="L53" t="inlineStr">
+      <c r="I53" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J53" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K53" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L53" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -3241,11 +3241,11 @@
         </is>
       </c>
       <c r="I54" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K54" s="2" t="b">
@@ -3281,7 +3281,7 @@
       </c>
       <c r="F55" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G55" s="2" t="b">
@@ -3293,11 +3293,11 @@
         </is>
       </c>
       <c r="I55" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K55" s="2" t="b">
@@ -3305,7 +3305,7 @@
       </c>
       <c r="L55" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -3333,7 +3333,7 @@
       </c>
       <c r="F56" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G56" s="2" t="b">
@@ -3345,11 +3345,11 @@
         </is>
       </c>
       <c r="I56" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K56" s="2" t="b">
@@ -3357,7 +3357,7 @@
       </c>
       <c r="L56" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -3385,7 +3385,7 @@
       </c>
       <c r="F57" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G57" s="2" t="b">
@@ -3397,11 +3397,11 @@
         </is>
       </c>
       <c r="I57" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K57" s="2" t="b">
@@ -3409,7 +3409,7 @@
       </c>
       <c r="L57" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -3437,7 +3437,7 @@
       </c>
       <c r="F58" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G58" s="2" t="b">
@@ -3449,11 +3449,11 @@
         </is>
       </c>
       <c r="I58" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K58" s="2" t="b">
@@ -3461,7 +3461,7 @@
       </c>
       <c r="L58" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -3489,289 +3489,289 @@
       </c>
       <c r="F59" s="2" t="inlineStr">
         <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G59" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H59" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I59" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J59" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K59" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L59" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B60" s="2" t="inlineStr">
+        <is>
+          <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
+        </is>
+      </c>
+      <c r="C60" s="2" t="inlineStr">
+        <is>
+          <t>Unlocking</t>
+        </is>
+      </c>
+      <c r="D60" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="E60" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="F60" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G60" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H60" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I60" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J60" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K60" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L60" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B61" s="2" t="inlineStr">
+        <is>
+          <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
+        </is>
+      </c>
+      <c r="C61" s="2" t="inlineStr">
+        <is>
+          <t>takeoff</t>
+        </is>
+      </c>
+      <c r="D61" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="E61" s="2" t="inlineStr">
+        <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G59" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H59" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I59" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J59" s="2" t="inlineStr">
+      <c r="F61" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G61" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H61" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="K59" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L59" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n">
+      <c r="I61" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J61" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K61" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L61" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B62" s="2" t="inlineStr">
         <is>
           <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>Unlocking</t>
-        </is>
-      </c>
-      <c r="D60" t="n">
-        <v>17</v>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
+      <c r="C62" s="2" t="inlineStr">
+        <is>
+          <t>restrictions</t>
+        </is>
+      </c>
+      <c r="D62" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="E62" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G60" t="b">
-        <v>1</v>
-      </c>
-      <c r="H60" t="inlineStr">
+      <c r="F62" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G62" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H62" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I60" t="b">
-        <v>1</v>
-      </c>
-      <c r="J60" t="inlineStr">
+      <c r="I62" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J62" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K62" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L62" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B63" s="2" t="inlineStr">
+        <is>
+          <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
+        </is>
+      </c>
+      <c r="C63" s="2" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="D63" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="E63" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F63" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G63" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H63" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="K60" t="b">
-        <v>1</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="n">
+      <c r="I63" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J63" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K63" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L63" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B64" s="2" t="inlineStr">
         <is>
           <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>takeoff</t>
-        </is>
-      </c>
-      <c r="D61" t="n">
-        <v>18</v>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G61" t="b">
-        <v>1</v>
-      </c>
-      <c r="H61" t="inlineStr">
+      <c r="C64" s="2" t="inlineStr">
+        <is>
+          <t>recommended</t>
+        </is>
+      </c>
+      <c r="D64" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="E64" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="F64" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G64" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H64" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I61" t="b">
-        <v>1</v>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K61" t="b">
-        <v>1</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="n">
-        <v>2</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>restrictions</t>
-        </is>
-      </c>
-      <c r="D62" t="n">
-        <v>19</v>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G62" t="b">
-        <v>1</v>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I62" t="b">
-        <v>1</v>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K62" t="b">
-        <v>1</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="n">
-        <v>2</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>not</t>
-        </is>
-      </c>
-      <c r="D63" t="n">
-        <v>20</v>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G63" t="b">
-        <v>1</v>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I63" t="b">
-        <v>1</v>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K63" t="b">
-        <v>1</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="n">
-        <v>2</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>recommended</t>
-        </is>
-      </c>
-      <c r="D64" t="n">
-        <v>21</v>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G64" t="b">
-        <v>1</v>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I64" t="b">
-        <v>1</v>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K64" t="b">
-        <v>1</v>
-      </c>
-      <c r="L64" t="inlineStr">
+      <c r="I64" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J64" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K64" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L64" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -3830,260 +3830,260 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="n">
+      <c r="A66" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" s="2" t="inlineStr">
         <is>
           <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="C66" s="2" t="inlineStr">
         <is>
           <t>Downward</t>
         </is>
       </c>
-      <c r="D66" t="n">
-        <v>0</v>
-      </c>
-      <c r="E66" t="inlineStr">
+      <c r="D66" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E66" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="F66" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G66" t="b">
-        <v>1</v>
-      </c>
-      <c r="H66" t="inlineStr">
+      <c r="G66" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H66" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I66" t="b">
-        <v>1</v>
-      </c>
-      <c r="J66" t="inlineStr">
+      <c r="I66" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J66" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K66" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L66" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B67" s="2" t="inlineStr">
+        <is>
+          <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C67" s="2" t="inlineStr">
+        <is>
+          <t>ambient</t>
+        </is>
+      </c>
+      <c r="D67" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E67" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F67" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G67" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H67" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="K66" t="b">
-        <v>1</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="n">
+      <c r="I67" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J67" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K67" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L67" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B68" s="2" t="inlineStr">
         <is>
           <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>ambient</t>
-        </is>
-      </c>
-      <c r="D67" t="n">
-        <v>1</v>
-      </c>
-      <c r="E67" t="inlineStr">
+      <c r="C68" s="2" t="inlineStr">
+        <is>
+          <t>light</t>
+        </is>
+      </c>
+      <c r="D68" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E68" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="F68" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G67" t="b">
-        <v>1</v>
-      </c>
-      <c r="H67" t="inlineStr">
+      <c r="G68" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H68" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I67" t="b">
-        <v>1</v>
-      </c>
-      <c r="J67" t="inlineStr">
+      <c r="I68" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J68" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K68" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L68" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B69" s="2" t="inlineStr">
+        <is>
+          <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C69" s="2" t="inlineStr">
+        <is>
+          <t>too</t>
+        </is>
+      </c>
+      <c r="D69" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E69" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F69" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G69" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H69" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="K67" t="b">
-        <v>1</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="n">
+      <c r="I69" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J69" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K69" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L69" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B70" s="2" t="inlineStr">
         <is>
           <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>light</t>
-        </is>
-      </c>
-      <c r="D68" t="n">
-        <v>2</v>
-      </c>
-      <c r="E68" t="inlineStr">
+      <c r="C70" s="2" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
+      <c r="D70" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E70" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="F70" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G68" t="b">
-        <v>1</v>
-      </c>
-      <c r="H68" t="inlineStr">
+      <c r="G70" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H70" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I68" t="b">
-        <v>1</v>
-      </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K68" t="b">
-        <v>1</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="n">
-        <v>3</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>too</t>
-        </is>
-      </c>
-      <c r="D69" t="n">
-        <v>3</v>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G69" t="b">
-        <v>1</v>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I69" t="b">
-        <v>1</v>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K69" t="b">
-        <v>1</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="n">
-        <v>3</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>low</t>
-        </is>
-      </c>
-      <c r="D70" t="n">
-        <v>4</v>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G70" t="b">
-        <v>1</v>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I70" t="b">
-        <v>1</v>
-      </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K70" t="b">
-        <v>1</v>
-      </c>
-      <c r="L70" t="inlineStr">
+      <c r="I70" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J70" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K70" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L70" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -4125,11 +4125,11 @@
         </is>
       </c>
       <c r="I71" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K71" s="2" t="b">
@@ -4177,11 +4177,11 @@
         </is>
       </c>
       <c r="I72" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J72" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K72" s="2" t="b">
@@ -4217,7 +4217,7 @@
       </c>
       <c r="F73" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G73" s="2" t="b">
@@ -4229,11 +4229,11 @@
         </is>
       </c>
       <c r="I73" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J73" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K73" s="2" t="b">
@@ -4241,7 +4241,7 @@
       </c>
       <c r="L73" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -4425,7 +4425,7 @@
       </c>
       <c r="F77" s="2" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G77" s="2" t="b">
@@ -4449,7 +4449,7 @@
       </c>
       <c r="L77" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -5546,572 +5546,572 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="n">
+      <c r="A99" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B99" t="inlineStr">
+      <c r="B99" s="2" t="inlineStr">
         <is>
           <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
+      <c r="C99" s="2" t="inlineStr">
         <is>
           <t>Backward</t>
         </is>
       </c>
-      <c r="D99" t="n">
+      <c r="D99" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="E99" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
+      <c r="F99" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G99" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H99" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I99" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J99" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K99" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L99" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B100" s="2" t="inlineStr">
+        <is>
+          <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C100" s="2" t="inlineStr">
+        <is>
+          <t>obstacle</t>
+        </is>
+      </c>
+      <c r="D100" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E100" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F100" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G100" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H100" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I100" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J100" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K100" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L100" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B101" s="2" t="inlineStr">
+        <is>
+          <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C101" s="2" t="inlineStr">
+        <is>
+          <t>avoidance</t>
+        </is>
+      </c>
+      <c r="D101" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E101" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F101" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G101" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H101" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I101" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J101" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K101" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L101" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B102" s="2" t="inlineStr">
+        <is>
+          <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C102" s="2" t="inlineStr">
+        <is>
+          <t>unavailable</t>
+        </is>
+      </c>
+      <c r="D102" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E102" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="F102" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G102" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H102" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I102" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J102" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K102" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L102" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B103" s="2" t="inlineStr">
+        <is>
+          <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C103" s="2" t="inlineStr">
+        <is>
+          <t>Only</t>
+        </is>
+      </c>
+      <c r="D103" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E103" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G99" t="b">
-        <v>1</v>
-      </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I99" t="b">
-        <v>1</v>
-      </c>
-      <c r="J99" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K99" t="b">
-        <v>1</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="n">
+      <c r="F103" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G103" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H103" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I103" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J103" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K103" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L103" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B100" t="inlineStr">
+      <c r="B104" s="2" t="inlineStr">
         <is>
           <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>obstacle</t>
-        </is>
-      </c>
-      <c r="D100" t="n">
-        <v>6</v>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G100" t="b">
-        <v>1</v>
-      </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I100" t="b">
-        <v>1</v>
-      </c>
-      <c r="J100" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K100" t="b">
-        <v>1</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="n">
+      <c r="C104" s="2" t="inlineStr">
+        <is>
+          <t>infrared</t>
+        </is>
+      </c>
+      <c r="D104" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E104" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F104" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G104" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H104" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I104" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J104" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K104" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L104" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B101" t="inlineStr">
+      <c r="B105" s="2" t="inlineStr">
         <is>
           <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>avoidance</t>
-        </is>
-      </c>
-      <c r="D101" t="n">
-        <v>7</v>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G101" t="b">
-        <v>1</v>
-      </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I101" t="b">
-        <v>1</v>
-      </c>
-      <c r="J101" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K101" t="b">
-        <v>1</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="n">
+      <c r="C105" s="2" t="inlineStr">
+        <is>
+          <t>sensors</t>
+        </is>
+      </c>
+      <c r="D105" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E105" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F105" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G105" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H105" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I105" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J105" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K105" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L105" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B102" t="inlineStr">
+      <c r="B106" s="2" t="inlineStr">
         <is>
           <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>unavailable</t>
-        </is>
-      </c>
-      <c r="D102" t="n">
-        <v>8</v>
-      </c>
-      <c r="E102" t="inlineStr">
+      <c r="C106" s="2" t="inlineStr">
+        <is>
+          <t>available</t>
+        </is>
+      </c>
+      <c r="D106" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="E106" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G102" t="b">
-        <v>1</v>
-      </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I102" t="b">
-        <v>1</v>
-      </c>
-      <c r="J102" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K102" t="b">
-        <v>1</v>
-      </c>
-      <c r="L102" t="inlineStr">
+      <c r="F106" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G106" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H106" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I106" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J106" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K106" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L106" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" t="n">
+    <row r="107">
+      <c r="A107" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B103" t="inlineStr">
+      <c r="B107" s="2" t="inlineStr">
         <is>
           <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>Only</t>
-        </is>
-      </c>
-      <c r="D103" t="n">
-        <v>9</v>
-      </c>
-      <c r="E103" t="inlineStr">
+      <c r="C107" s="2" t="inlineStr">
+        <is>
+          <t>Fly</t>
+        </is>
+      </c>
+      <c r="D107" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="E107" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G103" t="b">
-        <v>1</v>
-      </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I103" t="b">
-        <v>1</v>
-      </c>
-      <c r="J103" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K103" t="b">
-        <v>1</v>
-      </c>
-      <c r="L103" t="inlineStr">
+      <c r="F107" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G107" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H107" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I107" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J107" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K107" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L107" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" t="n">
+    <row r="108">
+      <c r="A108" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B104" t="inlineStr">
+      <c r="B108" s="2" t="inlineStr">
         <is>
           <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>infrared</t>
-        </is>
-      </c>
-      <c r="D104" t="n">
-        <v>10</v>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G104" t="b">
-        <v>1</v>
-      </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I104" t="b">
-        <v>1</v>
-      </c>
-      <c r="J104" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K104" t="b">
-        <v>1</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="n">
+      <c r="C108" s="2" t="inlineStr">
+        <is>
+          <t>with</t>
+        </is>
+      </c>
+      <c r="D108" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="E108" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F108" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G108" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H108" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I108" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J108" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K108" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L108" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B105" t="inlineStr">
+      <c r="B109" s="2" t="inlineStr">
         <is>
           <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>sensors</t>
-        </is>
-      </c>
-      <c r="D105" t="n">
-        <v>11</v>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G105" t="b">
-        <v>1</v>
-      </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I105" t="b">
-        <v>1</v>
-      </c>
-      <c r="J105" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K105" t="b">
-        <v>1</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="n">
-        <v>4</v>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>available</t>
-        </is>
-      </c>
-      <c r="D106" t="n">
-        <v>12</v>
-      </c>
-      <c r="E106" t="inlineStr">
+      <c r="C109" s="2" t="inlineStr">
+        <is>
+          <t>caution</t>
+        </is>
+      </c>
+      <c r="D109" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="E109" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G106" t="b">
-        <v>1</v>
-      </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I106" t="b">
-        <v>1</v>
-      </c>
-      <c r="J106" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K106" t="b">
-        <v>1</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="n">
-        <v>4</v>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>Fly</t>
-        </is>
-      </c>
-      <c r="D107" t="n">
-        <v>13</v>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G107" t="b">
-        <v>1</v>
-      </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I107" t="b">
-        <v>1</v>
-      </c>
-      <c r="J107" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K107" t="b">
-        <v>1</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="n">
-        <v>4</v>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>with</t>
-        </is>
-      </c>
-      <c r="D108" t="n">
-        <v>14</v>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G108" t="b">
-        <v>1</v>
-      </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I108" t="b">
-        <v>1</v>
-      </c>
-      <c r="J108" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K108" t="b">
-        <v>1</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="n">
-        <v>4</v>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>caution</t>
-        </is>
-      </c>
-      <c r="D109" t="n">
-        <v>15</v>
-      </c>
-      <c r="E109" t="inlineStr">
+      <c r="F109" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G109" t="b">
-        <v>1</v>
-      </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I109" t="b">
-        <v>1</v>
-      </c>
-      <c r="J109" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K109" t="b">
-        <v>1</v>
-      </c>
-      <c r="L109" t="inlineStr">
+      <c r="G109" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H109" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I109" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J109" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K109" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L109" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -6869,7 +6869,7 @@
       </c>
       <c r="F124" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G124" s="2" t="b">
@@ -6893,7 +6893,7 @@
       </c>
       <c r="L124" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_I_as_E</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -7678,104 +7678,104 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="2" t="n">
+      <c r="A140" t="n">
         <v>6</v>
       </c>
-      <c r="B140" s="2" t="inlineStr">
+      <c r="B140" t="inlineStr">
         <is>
           <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C140" s="2" t="inlineStr">
+      <c r="C140" t="inlineStr">
         <is>
           <t>Compass</t>
         </is>
       </c>
-      <c r="D140" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E140" s="2" t="inlineStr">
+      <c r="D140" t="n">
+        <v>0</v>
+      </c>
+      <c r="E140" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F140" s="2" t="inlineStr">
+      <c r="F140" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G140" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H140" s="2" t="inlineStr">
+      <c r="G140" t="b">
+        <v>1</v>
+      </c>
+      <c r="H140" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I140" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J140" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K140" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L140" s="2" t="inlineStr">
+      <c r="I140" t="b">
+        <v>1</v>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K140" t="b">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="2" t="n">
+      <c r="A141" t="n">
         <v>6</v>
       </c>
-      <c r="B141" s="2" t="inlineStr">
+      <c r="B141" t="inlineStr">
         <is>
           <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C141" s="2" t="inlineStr">
+      <c r="C141" t="inlineStr">
         <is>
           <t>abnormal</t>
         </is>
       </c>
-      <c r="D141" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E141" s="2" t="inlineStr">
+      <c r="D141" t="n">
+        <v>1</v>
+      </c>
+      <c r="E141" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F141" s="2" t="inlineStr">
+      <c r="F141" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G141" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H141" s="2" t="inlineStr">
+      <c r="G141" t="b">
+        <v>1</v>
+      </c>
+      <c r="H141" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I141" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J141" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K141" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L141" s="2" t="inlineStr">
+      <c r="I141" t="b">
+        <v>1</v>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K141" t="b">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -7805,7 +7805,7 @@
       </c>
       <c r="F142" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G142" s="2" t="b">
@@ -7817,11 +7817,11 @@
         </is>
       </c>
       <c r="I142" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J142" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K142" s="2" t="b">
@@ -7829,7 +7829,7 @@
       </c>
       <c r="L142" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -7857,7 +7857,7 @@
       </c>
       <c r="F143" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G143" s="2" t="b">
@@ -7881,7 +7881,7 @@
       </c>
       <c r="L143" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_B</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/roberta-base_15/original_remove/rem5/123/word_level_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/original_remove/rem5/123/word_level_predictions_123.xlsx
@@ -941,7 +941,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G10" s="2" t="b">
@@ -965,7 +965,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -993,7 +993,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G11" s="2" t="b">
@@ -1017,7 +1017,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -1750,834 +1750,834 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B26" s="2" t="inlineStr">
+      <c r="A26" t="n">
+        <v>1</v>
+      </c>
+      <c r="B26" t="inlineStr">
         <is>
           <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
-      <c r="C26" s="2" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>Return</t>
         </is>
       </c>
-      <c r="D26" s="2" t="n">
+      <c r="D26" t="n">
         <v>7</v>
       </c>
-      <c r="E26" s="2" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F26" s="2" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G26" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L26" s="2" t="inlineStr">
+      <c r="G26" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I26" t="b">
+        <v>1</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K26" t="b">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B27" s="2" t="inlineStr">
+      <c r="A27" t="n">
+        <v>1</v>
+      </c>
+      <c r="B27" t="inlineStr">
         <is>
           <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
-      <c r="C27" s="2" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D27" s="2" t="n">
+      <c r="D27" t="n">
         <v>8</v>
       </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L27" s="2" t="inlineStr">
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G27" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I27" t="b">
+        <v>1</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K27" t="b">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B28" s="2" t="inlineStr">
+      <c r="A28" t="n">
+        <v>1</v>
+      </c>
+      <c r="B28" t="inlineStr">
         <is>
           <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
-      <c r="C28" s="2" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>home</t>
         </is>
       </c>
-      <c r="D28" s="2" t="n">
+      <c r="D28" t="n">
         <v>9</v>
       </c>
-      <c r="E28" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F28" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G28" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H28" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I28" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J28" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K28" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L28" s="2" t="inlineStr">
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G28" t="b">
+        <v>1</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I28" t="b">
+        <v>1</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K28" t="b">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B29" s="2" t="inlineStr">
+      <c r="A29" t="n">
+        <v>1</v>
+      </c>
+      <c r="B29" t="inlineStr">
         <is>
           <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
-      <c r="C29" s="2" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D29" s="2" t="n">
+      <c r="D29" t="n">
         <v>10</v>
       </c>
-      <c r="E29" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F29" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G29" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H29" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I29" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J29" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K29" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L29" s="2" t="inlineStr">
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I29" t="b">
+        <v>1</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K29" t="b">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B30" s="2" t="inlineStr">
+      <c r="A30" t="n">
+        <v>1</v>
+      </c>
+      <c r="B30" t="inlineStr">
         <is>
           <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
-      <c r="C30" s="2" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>land</t>
         </is>
       </c>
-      <c r="D30" s="2" t="n">
+      <c r="D30" t="n">
         <v>11</v>
       </c>
-      <c r="E30" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F30" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G30" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H30" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I30" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J30" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K30" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L30" s="2" t="inlineStr">
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G30" t="b">
+        <v>1</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I30" t="b">
+        <v>1</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K30" t="b">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B31" s="2" t="inlineStr">
+      <c r="A31" t="n">
+        <v>1</v>
+      </c>
+      <c r="B31" t="inlineStr">
         <is>
           <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
-      <c r="C31" s="2" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>promptly</t>
         </is>
       </c>
-      <c r="D31" s="2" t="n">
+      <c r="D31" t="n">
         <v>12</v>
       </c>
-      <c r="E31" s="2" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F31" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G31" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H31" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I31" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J31" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K31" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L31" s="2" t="inlineStr">
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G31" t="b">
+        <v>1</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I31" t="b">
+        <v>1</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K31" t="b">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B32" s="2" t="inlineStr">
+      <c r="A32" t="n">
+        <v>1</v>
+      </c>
+      <c r="B32" t="inlineStr">
         <is>
           <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
-      <c r="C32" s="2" t="inlineStr">
+      <c r="C32" t="inlineStr">
         <is>
           <t>Check</t>
         </is>
       </c>
-      <c r="D32" s="2" t="n">
+      <c r="D32" t="n">
         <v>13</v>
       </c>
-      <c r="E32" s="2" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F32" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G32" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H32" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I32" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J32" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K32" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L32" s="2" t="inlineStr">
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G32" t="b">
+        <v>1</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I32" t="b">
+        <v>1</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K32" t="b">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr">
         <is>
           <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B33" s="2" t="inlineStr">
+      <c r="A33" t="n">
+        <v>1</v>
+      </c>
+      <c r="B33" t="inlineStr">
         <is>
           <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
-      <c r="C33" s="2" t="inlineStr">
+      <c r="C33" t="inlineStr">
         <is>
           <t>whether</t>
         </is>
       </c>
-      <c r="D33" s="2" t="n">
+      <c r="D33" t="n">
         <v>14</v>
       </c>
-      <c r="E33" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F33" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G33" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H33" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I33" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J33" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K33" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L33" s="2" t="inlineStr">
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G33" t="b">
+        <v>1</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I33" t="b">
+        <v>1</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K33" t="b">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B34" s="2" t="inlineStr">
+      <c r="A34" t="n">
+        <v>1</v>
+      </c>
+      <c r="B34" t="inlineStr">
         <is>
           <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
-      <c r="C34" s="2" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t>propeller</t>
         </is>
       </c>
-      <c r="D34" s="2" t="n">
+      <c r="D34" t="n">
         <v>15</v>
       </c>
-      <c r="E34" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F34" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G34" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H34" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I34" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J34" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K34" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L34" s="2" t="inlineStr">
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G34" t="b">
+        <v>1</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I34" t="b">
+        <v>1</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K34" t="b">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B35" s="2" t="inlineStr">
+      <c r="A35" t="n">
+        <v>1</v>
+      </c>
+      <c r="B35" t="inlineStr">
         <is>
           <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
-      <c r="C35" s="2" t="inlineStr">
+      <c r="C35" t="inlineStr">
         <is>
           <t>on</t>
         </is>
       </c>
-      <c r="D35" s="2" t="n">
+      <c r="D35" t="n">
         <v>16</v>
       </c>
-      <c r="E35" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F35" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G35" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H35" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I35" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J35" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K35" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L35" s="2" t="inlineStr">
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G35" t="b">
+        <v>1</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I35" t="b">
+        <v>1</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K35" t="b">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B36" s="2" t="inlineStr">
+      <c r="A36" t="n">
+        <v>1</v>
+      </c>
+      <c r="B36" t="inlineStr">
         <is>
           <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
-      <c r="C36" s="2" t="inlineStr">
+      <c r="C36" t="inlineStr">
         <is>
           <t>beeping</t>
         </is>
       </c>
-      <c r="D36" s="2" t="n">
+      <c r="D36" t="n">
         <v>17</v>
       </c>
-      <c r="E36" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F36" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G36" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H36" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I36" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J36" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K36" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L36" s="2" t="inlineStr">
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G36" t="b">
+        <v>1</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I36" t="b">
+        <v>1</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K36" t="b">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B37" s="2" t="inlineStr">
+      <c r="A37" t="n">
+        <v>1</v>
+      </c>
+      <c r="B37" t="inlineStr">
         <is>
           <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
-      <c r="C37" s="2" t="inlineStr">
+      <c r="C37" t="inlineStr">
         <is>
           <t>ESC</t>
         </is>
       </c>
-      <c r="D37" s="2" t="n">
+      <c r="D37" t="n">
         <v>18</v>
       </c>
-      <c r="E37" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F37" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G37" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H37" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I37" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J37" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K37" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L37" s="2" t="inlineStr">
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G37" t="b">
+        <v>1</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I37" t="b">
+        <v>1</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K37" t="b">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B38" s="2" t="inlineStr">
+      <c r="A38" t="n">
+        <v>1</v>
+      </c>
+      <c r="B38" t="inlineStr">
         <is>
           <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
-      <c r="C38" s="2" t="inlineStr">
+      <c r="C38" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D38" s="2" t="n">
+      <c r="D38" t="n">
         <v>19</v>
       </c>
-      <c r="E38" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F38" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G38" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H38" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I38" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J38" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K38" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L38" s="2" t="inlineStr">
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G38" t="b">
+        <v>1</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I38" t="b">
+        <v>1</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K38" t="b">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B39" s="2" t="inlineStr">
+      <c r="A39" t="n">
+        <v>1</v>
+      </c>
+      <c r="B39" t="inlineStr">
         <is>
           <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
-      <c r="C39" s="2" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t>warped</t>
         </is>
       </c>
-      <c r="D39" s="2" t="n">
+      <c r="D39" t="n">
         <v>20</v>
       </c>
-      <c r="E39" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F39" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G39" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H39" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I39" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J39" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K39" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L39" s="2" t="inlineStr">
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G39" t="b">
+        <v>1</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I39" t="b">
+        <v>1</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K39" t="b">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B40" s="2" t="inlineStr">
+      <c r="A40" t="n">
+        <v>1</v>
+      </c>
+      <c r="B40" t="inlineStr">
         <is>
           <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
-      <c r="C40" s="2" t="inlineStr">
+      <c r="C40" t="inlineStr">
         <is>
           <t>or</t>
         </is>
       </c>
-      <c r="D40" s="2" t="n">
+      <c r="D40" t="n">
         <v>21</v>
       </c>
-      <c r="E40" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F40" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G40" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H40" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I40" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J40" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K40" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L40" s="2" t="inlineStr">
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G40" t="b">
+        <v>1</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I40" t="b">
+        <v>1</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K40" t="b">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B41" s="2" t="inlineStr">
+      <c r="A41" t="n">
+        <v>1</v>
+      </c>
+      <c r="B41" t="inlineStr">
         <is>
           <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
-      <c r="C41" s="2" t="inlineStr">
+      <c r="C41" t="inlineStr">
         <is>
           <t>damaged</t>
         </is>
       </c>
-      <c r="D41" s="2" t="n">
+      <c r="D41" t="n">
         <v>22</v>
       </c>
-      <c r="E41" s="2" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F41" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G41" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H41" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I41" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J41" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K41" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L41" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G41" t="b">
+        <v>1</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I41" t="b">
+        <v>1</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K41" t="b">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -2634,572 +2634,572 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="2" t="n">
+      <c r="A43" t="n">
         <v>2</v>
       </c>
-      <c r="B43" s="2" t="inlineStr">
+      <c r="B43" t="inlineStr">
         <is>
           <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
-      <c r="C43" s="2" t="inlineStr">
+      <c r="C43" t="inlineStr">
         <is>
           <t>GPS</t>
         </is>
       </c>
-      <c r="D43" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E43" s="2" t="inlineStr">
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F43" s="2" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G43" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H43" s="2" t="inlineStr">
+      <c r="G43" t="b">
+        <v>1</v>
+      </c>
+      <c r="H43" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I43" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J43" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K43" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L43" s="2" t="inlineStr">
+      <c r="I43" t="b">
+        <v>1</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K43" t="b">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="2" t="n">
+      <c r="A44" t="n">
         <v>2</v>
       </c>
-      <c r="B44" s="2" t="inlineStr">
+      <c r="B44" t="inlineStr">
         <is>
           <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
-      <c r="C44" s="2" t="inlineStr">
+      <c r="C44" t="inlineStr">
         <is>
           <t>signal</t>
         </is>
       </c>
-      <c r="D44" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E44" s="2" t="inlineStr">
+      <c r="D44" t="n">
+        <v>1</v>
+      </c>
+      <c r="E44" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F44" s="2" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G44" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H44" s="2" t="inlineStr">
+      <c r="G44" t="b">
+        <v>1</v>
+      </c>
+      <c r="H44" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I44" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J44" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K44" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L44" s="2" t="inlineStr">
+      <c r="I44" t="b">
+        <v>1</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K44" t="b">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="2" t="n">
+      <c r="A45" t="n">
         <v>2</v>
       </c>
-      <c r="B45" s="2" t="inlineStr">
+      <c r="B45" t="inlineStr">
         <is>
           <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
-      <c r="C45" s="2" t="inlineStr">
+      <c r="C45" t="inlineStr">
         <is>
           <t>low</t>
         </is>
       </c>
-      <c r="D45" s="2" t="n">
+      <c r="D45" t="n">
         <v>2</v>
       </c>
-      <c r="E45" s="2" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F45" s="2" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G45" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H45" s="2" t="inlineStr">
+      <c r="G45" t="b">
+        <v>1</v>
+      </c>
+      <c r="H45" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I45" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J45" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K45" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L45" s="2" t="inlineStr">
+      <c r="I45" t="b">
+        <v>1</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K45" t="b">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="n">
+      <c r="A46" t="n">
         <v>2</v>
       </c>
-      <c r="B46" s="2" t="inlineStr">
+      <c r="B46" t="inlineStr">
         <is>
           <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
-      <c r="C46" s="2" t="inlineStr">
+      <c r="C46" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D46" s="2" t="n">
+      <c r="D46" t="n">
         <v>3</v>
       </c>
-      <c r="E46" s="2" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F46" s="2" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G46" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H46" s="2" t="inlineStr">
+      <c r="G46" t="b">
+        <v>1</v>
+      </c>
+      <c r="H46" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I46" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J46" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K46" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L46" s="2" t="inlineStr">
+      <c r="I46" t="b">
+        <v>1</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K46" t="b">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr">
         <is>
           <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="2" t="n">
+      <c r="A47" t="n">
         <v>2</v>
       </c>
-      <c r="B47" s="2" t="inlineStr">
+      <c r="B47" t="inlineStr">
         <is>
           <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
-      <c r="C47" s="2" t="inlineStr">
+      <c r="C47" t="inlineStr">
         <is>
           <t>unable</t>
         </is>
       </c>
-      <c r="D47" s="2" t="n">
+      <c r="D47" t="n">
         <v>4</v>
       </c>
-      <c r="E47" s="2" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F47" s="2" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G47" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H47" s="2" t="inlineStr">
+      <c r="G47" t="b">
+        <v>1</v>
+      </c>
+      <c r="H47" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I47" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J47" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K47" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L47" s="2" t="inlineStr">
+      <c r="I47" t="b">
+        <v>1</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K47" t="b">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="n">
+      <c r="A48" t="n">
         <v>2</v>
       </c>
-      <c r="B48" s="2" t="inlineStr">
+      <c r="B48" t="inlineStr">
         <is>
           <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
-      <c r="C48" s="2" t="inlineStr">
+      <c r="C48" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D48" s="2" t="n">
+      <c r="D48" t="n">
         <v>5</v>
       </c>
-      <c r="E48" s="2" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F48" s="2" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G48" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H48" s="2" t="inlineStr">
+      <c r="G48" t="b">
+        <v>1</v>
+      </c>
+      <c r="H48" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I48" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J48" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K48" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L48" s="2" t="inlineStr">
+      <c r="I48" t="b">
+        <v>1</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K48" t="b">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="n">
+      <c r="A49" t="n">
         <v>2</v>
       </c>
-      <c r="B49" s="2" t="inlineStr">
+      <c r="B49" t="inlineStr">
         <is>
           <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
-      <c r="C49" s="2" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t>auto</t>
         </is>
       </c>
-      <c r="D49" s="2" t="n">
+      <c r="D49" t="n">
         <v>6</v>
       </c>
-      <c r="E49" s="2" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F49" s="2" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G49" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H49" s="2" t="inlineStr">
+      <c r="G49" t="b">
+        <v>1</v>
+      </c>
+      <c r="H49" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I49" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J49" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K49" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L49" s="2" t="inlineStr">
+      <c r="I49" t="b">
+        <v>1</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K49" t="b">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="2" t="n">
+      <c r="A50" t="n">
         <v>2</v>
       </c>
-      <c r="B50" s="2" t="inlineStr">
+      <c r="B50" t="inlineStr">
         <is>
           <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
-      <c r="C50" s="2" t="inlineStr">
+      <c r="C50" t="inlineStr">
         <is>
           <t>hover</t>
         </is>
       </c>
-      <c r="D50" s="2" t="n">
+      <c r="D50" t="n">
         <v>7</v>
       </c>
-      <c r="E50" s="2" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F50" s="2" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G50" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H50" s="2" t="inlineStr">
+      <c r="G50" t="b">
+        <v>1</v>
+      </c>
+      <c r="H50" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I50" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J50" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K50" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L50" s="2" t="inlineStr">
+      <c r="I50" t="b">
+        <v>1</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K50" t="b">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="2" t="n">
+      <c r="A51" t="n">
         <v>2</v>
       </c>
-      <c r="B51" s="2" t="inlineStr">
+      <c r="B51" t="inlineStr">
         <is>
           <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
-      <c r="C51" s="2" t="inlineStr">
+      <c r="C51" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D51" s="2" t="n">
+      <c r="D51" t="n">
         <v>8</v>
       </c>
-      <c r="E51" s="2" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F51" s="2" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G51" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H51" s="2" t="inlineStr">
+      <c r="G51" t="b">
+        <v>1</v>
+      </c>
+      <c r="H51" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I51" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J51" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K51" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L51" s="2" t="inlineStr">
+      <c r="I51" t="b">
+        <v>1</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K51" t="b">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="2" t="n">
+      <c r="A52" t="n">
         <v>2</v>
       </c>
-      <c r="B52" s="2" t="inlineStr">
+      <c r="B52" t="inlineStr">
         <is>
           <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
-      <c r="C52" s="2" t="inlineStr">
+      <c r="C52" t="inlineStr">
         <is>
           <t>takeoff</t>
         </is>
       </c>
-      <c r="D52" s="2" t="n">
+      <c r="D52" t="n">
         <v>9</v>
       </c>
-      <c r="E52" s="2" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F52" s="2" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G52" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H52" s="2" t="inlineStr">
+      <c r="G52" t="b">
+        <v>1</v>
+      </c>
+      <c r="H52" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I52" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J52" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K52" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L52" s="2" t="inlineStr">
+      <c r="I52" t="b">
+        <v>1</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K52" t="b">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="2" t="n">
+      <c r="A53" t="n">
         <v>2</v>
       </c>
-      <c r="B53" s="2" t="inlineStr">
+      <c r="B53" t="inlineStr">
         <is>
           <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
-      <c r="C53" s="2" t="inlineStr">
+      <c r="C53" t="inlineStr">
         <is>
           <t>restricted</t>
         </is>
       </c>
-      <c r="D53" s="2" t="n">
+      <c r="D53" t="n">
         <v>10</v>
       </c>
-      <c r="E53" s="2" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F53" s="2" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G53" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H53" s="2" t="inlineStr">
+      <c r="G53" t="b">
+        <v>1</v>
+      </c>
+      <c r="H53" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I53" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J53" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K53" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L53" s="2" t="inlineStr">
+      <c r="I53" t="b">
+        <v>1</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K53" t="b">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -3241,11 +3241,11 @@
         </is>
       </c>
       <c r="I54" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K54" s="2" t="b">
@@ -3281,7 +3281,7 @@
       </c>
       <c r="F55" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G55" s="2" t="b">
@@ -3293,11 +3293,11 @@
         </is>
       </c>
       <c r="I55" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K55" s="2" t="b">
@@ -3305,7 +3305,7 @@
       </c>
       <c r="L55" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -3333,7 +3333,7 @@
       </c>
       <c r="F56" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G56" s="2" t="b">
@@ -3345,11 +3345,11 @@
         </is>
       </c>
       <c r="I56" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K56" s="2" t="b">
@@ -3357,7 +3357,7 @@
       </c>
       <c r="L56" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -3385,7 +3385,7 @@
       </c>
       <c r="F57" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G57" s="2" t="b">
@@ -3397,11 +3397,11 @@
         </is>
       </c>
       <c r="I57" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K57" s="2" t="b">
@@ -3409,7 +3409,7 @@
       </c>
       <c r="L57" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -3437,7 +3437,7 @@
       </c>
       <c r="F58" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G58" s="2" t="b">
@@ -3449,11 +3449,11 @@
         </is>
       </c>
       <c r="I58" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K58" s="2" t="b">
@@ -3461,7 +3461,7 @@
       </c>
       <c r="L58" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -3489,7 +3489,7 @@
       </c>
       <c r="F59" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G59" s="2" t="b">
@@ -3501,11 +3501,11 @@
         </is>
       </c>
       <c r="I59" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K59" s="2" t="b">
@@ -3513,265 +3513,265 @@
       </c>
       <c r="L59" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="2" t="n">
+      <c r="A60" t="n">
         <v>2</v>
       </c>
-      <c r="B60" s="2" t="inlineStr">
+      <c r="B60" t="inlineStr">
         <is>
           <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
-      <c r="C60" s="2" t="inlineStr">
+      <c r="C60" t="inlineStr">
         <is>
           <t>Unlocking</t>
         </is>
       </c>
-      <c r="D60" s="2" t="n">
+      <c r="D60" t="n">
         <v>17</v>
       </c>
-      <c r="E60" s="2" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F60" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G60" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H60" s="2" t="inlineStr">
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G60" t="b">
+        <v>1</v>
+      </c>
+      <c r="H60" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I60" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J60" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K60" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L60" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="I60" t="b">
+        <v>1</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K60" t="b">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="2" t="n">
+      <c r="A61" t="n">
         <v>2</v>
       </c>
-      <c r="B61" s="2" t="inlineStr">
+      <c r="B61" t="inlineStr">
         <is>
           <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
-      <c r="C61" s="2" t="inlineStr">
+      <c r="C61" t="inlineStr">
         <is>
           <t>takeoff</t>
         </is>
       </c>
-      <c r="D61" s="2" t="n">
+      <c r="D61" t="n">
         <v>18</v>
       </c>
-      <c r="E61" s="2" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F61" s="2" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G61" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H61" s="2" t="inlineStr">
+      <c r="G61" t="b">
+        <v>1</v>
+      </c>
+      <c r="H61" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I61" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J61" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K61" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L61" s="2" t="inlineStr">
+      <c r="I61" t="b">
+        <v>1</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K61" t="b">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="2" t="n">
+      <c r="A62" t="n">
         <v>2</v>
       </c>
-      <c r="B62" s="2" t="inlineStr">
+      <c r="B62" t="inlineStr">
         <is>
           <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
-      <c r="C62" s="2" t="inlineStr">
+      <c r="C62" t="inlineStr">
         <is>
           <t>restrictions</t>
         </is>
       </c>
-      <c r="D62" s="2" t="n">
+      <c r="D62" t="n">
         <v>19</v>
       </c>
-      <c r="E62" s="2" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F62" s="2" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G62" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H62" s="2" t="inlineStr">
+      <c r="G62" t="b">
+        <v>1</v>
+      </c>
+      <c r="H62" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I62" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J62" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K62" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L62" s="2" t="inlineStr">
+      <c r="I62" t="b">
+        <v>1</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K62" t="b">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="2" t="n">
+      <c r="A63" t="n">
         <v>2</v>
       </c>
-      <c r="B63" s="2" t="inlineStr">
+      <c r="B63" t="inlineStr">
         <is>
           <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
-      <c r="C63" s="2" t="inlineStr">
+      <c r="C63" t="inlineStr">
         <is>
           <t>not</t>
         </is>
       </c>
-      <c r="D63" s="2" t="n">
+      <c r="D63" t="n">
         <v>20</v>
       </c>
-      <c r="E63" s="2" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F63" s="2" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G63" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H63" s="2" t="inlineStr">
+      <c r="G63" t="b">
+        <v>1</v>
+      </c>
+      <c r="H63" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I63" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J63" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K63" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L63" s="2" t="inlineStr">
+      <c r="I63" t="b">
+        <v>1</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K63" t="b">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="2" t="n">
+      <c r="A64" t="n">
         <v>2</v>
       </c>
-      <c r="B64" s="2" t="inlineStr">
+      <c r="B64" t="inlineStr">
         <is>
           <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
-      <c r="C64" s="2" t="inlineStr">
+      <c r="C64" t="inlineStr">
         <is>
           <t>recommended</t>
         </is>
       </c>
-      <c r="D64" s="2" t="n">
+      <c r="D64" t="n">
         <v>21</v>
       </c>
-      <c r="E64" s="2" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F64" s="2" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G64" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H64" s="2" t="inlineStr">
+      <c r="G64" t="b">
+        <v>1</v>
+      </c>
+      <c r="H64" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I64" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J64" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K64" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L64" s="2" t="inlineStr">
+      <c r="I64" t="b">
+        <v>1</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K64" t="b">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -3830,260 +3830,260 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="2" t="n">
+      <c r="A66" t="n">
         <v>3</v>
       </c>
-      <c r="B66" s="2" t="inlineStr">
+      <c r="B66" t="inlineStr">
         <is>
           <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C66" s="2" t="inlineStr">
+      <c r="C66" t="inlineStr">
         <is>
           <t>Downward</t>
         </is>
       </c>
-      <c r="D66" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E66" s="2" t="inlineStr">
+      <c r="D66" t="n">
+        <v>0</v>
+      </c>
+      <c r="E66" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F66" s="2" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G66" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H66" s="2" t="inlineStr">
+      <c r="G66" t="b">
+        <v>1</v>
+      </c>
+      <c r="H66" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I66" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J66" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K66" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L66" s="2" t="inlineStr">
+      <c r="I66" t="b">
+        <v>1</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K66" t="b">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="2" t="n">
+      <c r="A67" t="n">
         <v>3</v>
       </c>
-      <c r="B67" s="2" t="inlineStr">
+      <c r="B67" t="inlineStr">
         <is>
           <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C67" s="2" t="inlineStr">
+      <c r="C67" t="inlineStr">
         <is>
           <t>ambient</t>
         </is>
       </c>
-      <c r="D67" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E67" s="2" t="inlineStr">
+      <c r="D67" t="n">
+        <v>1</v>
+      </c>
+      <c r="E67" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F67" s="2" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G67" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H67" s="2" t="inlineStr">
+      <c r="G67" t="b">
+        <v>1</v>
+      </c>
+      <c r="H67" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I67" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J67" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K67" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L67" s="2" t="inlineStr">
+      <c r="I67" t="b">
+        <v>1</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K67" t="b">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="2" t="n">
+      <c r="A68" t="n">
         <v>3</v>
       </c>
-      <c r="B68" s="2" t="inlineStr">
+      <c r="B68" t="inlineStr">
         <is>
           <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C68" s="2" t="inlineStr">
+      <c r="C68" t="inlineStr">
         <is>
           <t>light</t>
         </is>
       </c>
-      <c r="D68" s="2" t="n">
+      <c r="D68" t="n">
         <v>2</v>
       </c>
-      <c r="E68" s="2" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F68" s="2" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G68" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H68" s="2" t="inlineStr">
+      <c r="G68" t="b">
+        <v>1</v>
+      </c>
+      <c r="H68" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I68" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J68" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K68" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L68" s="2" t="inlineStr">
+      <c r="I68" t="b">
+        <v>1</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K68" t="b">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="2" t="n">
+      <c r="A69" t="n">
         <v>3</v>
       </c>
-      <c r="B69" s="2" t="inlineStr">
+      <c r="B69" t="inlineStr">
         <is>
           <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C69" s="2" t="inlineStr">
+      <c r="C69" t="inlineStr">
         <is>
           <t>too</t>
         </is>
       </c>
-      <c r="D69" s="2" t="n">
+      <c r="D69" t="n">
         <v>3</v>
       </c>
-      <c r="E69" s="2" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F69" s="2" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G69" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H69" s="2" t="inlineStr">
+      <c r="G69" t="b">
+        <v>1</v>
+      </c>
+      <c r="H69" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I69" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J69" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K69" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L69" s="2" t="inlineStr">
+      <c r="I69" t="b">
+        <v>1</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K69" t="b">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="2" t="n">
+      <c r="A70" t="n">
         <v>3</v>
       </c>
-      <c r="B70" s="2" t="inlineStr">
+      <c r="B70" t="inlineStr">
         <is>
           <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C70" s="2" t="inlineStr">
+      <c r="C70" t="inlineStr">
         <is>
           <t>low</t>
         </is>
       </c>
-      <c r="D70" s="2" t="n">
+      <c r="D70" t="n">
         <v>4</v>
       </c>
-      <c r="E70" s="2" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F70" s="2" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G70" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H70" s="2" t="inlineStr">
+      <c r="G70" t="b">
+        <v>1</v>
+      </c>
+      <c r="H70" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I70" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J70" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K70" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L70" s="2" t="inlineStr">
+      <c r="I70" t="b">
+        <v>1</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K70" t="b">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -4125,11 +4125,11 @@
         </is>
       </c>
       <c r="I71" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K71" s="2" t="b">
@@ -4177,11 +4177,11 @@
         </is>
       </c>
       <c r="I72" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K72" s="2" t="b">
@@ -4217,7 +4217,7 @@
       </c>
       <c r="F73" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G73" s="2" t="b">
@@ -4229,11 +4229,11 @@
         </is>
       </c>
       <c r="I73" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K73" s="2" t="b">
@@ -4241,7 +4241,7 @@
       </c>
       <c r="L73" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -4425,7 +4425,7 @@
       </c>
       <c r="F77" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G77" s="2" t="b">
@@ -4449,7 +4449,7 @@
       </c>
       <c r="L77" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -5546,572 +5546,572 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="2" t="n">
+      <c r="A99" t="n">
         <v>4</v>
       </c>
-      <c r="B99" s="2" t="inlineStr">
+      <c r="B99" t="inlineStr">
         <is>
           <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C99" s="2" t="inlineStr">
+      <c r="C99" t="inlineStr">
         <is>
           <t>Backward</t>
         </is>
       </c>
-      <c r="D99" s="2" t="n">
+      <c r="D99" t="n">
         <v>5</v>
       </c>
-      <c r="E99" s="2" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F99" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G99" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H99" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I99" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J99" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K99" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L99" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G99" t="b">
+        <v>1</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I99" t="b">
+        <v>1</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K99" t="b">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="2" t="n">
+      <c r="A100" t="n">
         <v>4</v>
       </c>
-      <c r="B100" s="2" t="inlineStr">
+      <c r="B100" t="inlineStr">
         <is>
           <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C100" s="2" t="inlineStr">
+      <c r="C100" t="inlineStr">
         <is>
           <t>obstacle</t>
         </is>
       </c>
-      <c r="D100" s="2" t="n">
+      <c r="D100" t="n">
         <v>6</v>
       </c>
-      <c r="E100" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F100" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G100" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H100" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I100" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J100" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K100" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L100" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G100" t="b">
+        <v>1</v>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I100" t="b">
+        <v>1</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K100" t="b">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="2" t="n">
+      <c r="A101" t="n">
         <v>4</v>
       </c>
-      <c r="B101" s="2" t="inlineStr">
+      <c r="B101" t="inlineStr">
         <is>
           <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C101" s="2" t="inlineStr">
+      <c r="C101" t="inlineStr">
         <is>
           <t>avoidance</t>
         </is>
       </c>
-      <c r="D101" s="2" t="n">
+      <c r="D101" t="n">
         <v>7</v>
       </c>
-      <c r="E101" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F101" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G101" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H101" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I101" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J101" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K101" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L101" s="2" t="inlineStr">
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G101" t="b">
+        <v>1</v>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I101" t="b">
+        <v>1</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K101" t="b">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="2" t="n">
+      <c r="A102" t="n">
         <v>4</v>
       </c>
-      <c r="B102" s="2" t="inlineStr">
+      <c r="B102" t="inlineStr">
         <is>
           <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C102" s="2" t="inlineStr">
+      <c r="C102" t="inlineStr">
         <is>
           <t>unavailable</t>
         </is>
       </c>
-      <c r="D102" s="2" t="n">
+      <c r="D102" t="n">
         <v>8</v>
       </c>
-      <c r="E102" s="2" t="inlineStr">
+      <c r="E102" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F102" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G102" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H102" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I102" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J102" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K102" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L102" s="2" t="inlineStr">
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G102" t="b">
+        <v>1</v>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I102" t="b">
+        <v>1</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K102" t="b">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="2" t="n">
+      <c r="A103" t="n">
         <v>4</v>
       </c>
-      <c r="B103" s="2" t="inlineStr">
+      <c r="B103" t="inlineStr">
         <is>
           <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C103" s="2" t="inlineStr">
+      <c r="C103" t="inlineStr">
         <is>
           <t>Only</t>
         </is>
       </c>
-      <c r="D103" s="2" t="n">
+      <c r="D103" t="n">
         <v>9</v>
       </c>
-      <c r="E103" s="2" t="inlineStr">
+      <c r="E103" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F103" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G103" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H103" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I103" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J103" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K103" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L103" s="2" t="inlineStr">
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G103" t="b">
+        <v>1</v>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I103" t="b">
+        <v>1</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K103" t="b">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr">
         <is>
           <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="2" t="n">
+      <c r="A104" t="n">
         <v>4</v>
       </c>
-      <c r="B104" s="2" t="inlineStr">
+      <c r="B104" t="inlineStr">
         <is>
           <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C104" s="2" t="inlineStr">
+      <c r="C104" t="inlineStr">
         <is>
           <t>infrared</t>
         </is>
       </c>
-      <c r="D104" s="2" t="n">
+      <c r="D104" t="n">
         <v>10</v>
       </c>
-      <c r="E104" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F104" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G104" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H104" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I104" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J104" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K104" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L104" s="2" t="inlineStr">
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G104" t="b">
+        <v>1</v>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I104" t="b">
+        <v>1</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K104" t="b">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="2" t="n">
+      <c r="A105" t="n">
         <v>4</v>
       </c>
-      <c r="B105" s="2" t="inlineStr">
+      <c r="B105" t="inlineStr">
         <is>
           <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C105" s="2" t="inlineStr">
+      <c r="C105" t="inlineStr">
         <is>
           <t>sensors</t>
         </is>
       </c>
-      <c r="D105" s="2" t="n">
+      <c r="D105" t="n">
         <v>11</v>
       </c>
-      <c r="E105" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F105" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G105" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H105" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I105" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J105" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K105" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L105" s="2" t="inlineStr">
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G105" t="b">
+        <v>1</v>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I105" t="b">
+        <v>1</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K105" t="b">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="2" t="n">
+      <c r="A106" t="n">
         <v>4</v>
       </c>
-      <c r="B106" s="2" t="inlineStr">
+      <c r="B106" t="inlineStr">
         <is>
           <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C106" s="2" t="inlineStr">
+      <c r="C106" t="inlineStr">
         <is>
           <t>available</t>
         </is>
       </c>
-      <c r="D106" s="2" t="n">
+      <c r="D106" t="n">
         <v>12</v>
       </c>
-      <c r="E106" s="2" t="inlineStr">
+      <c r="E106" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F106" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G106" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H106" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I106" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J106" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K106" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L106" s="2" t="inlineStr">
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G106" t="b">
+        <v>1</v>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I106" t="b">
+        <v>1</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K106" t="b">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="2" t="n">
+      <c r="A107" t="n">
         <v>4</v>
       </c>
-      <c r="B107" s="2" t="inlineStr">
+      <c r="B107" t="inlineStr">
         <is>
           <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C107" s="2" t="inlineStr">
+      <c r="C107" t="inlineStr">
         <is>
           <t>Fly</t>
         </is>
       </c>
-      <c r="D107" s="2" t="n">
+      <c r="D107" t="n">
         <v>13</v>
       </c>
-      <c r="E107" s="2" t="inlineStr">
+      <c r="E107" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F107" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G107" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H107" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I107" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J107" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K107" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L107" s="2" t="inlineStr">
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G107" t="b">
+        <v>1</v>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I107" t="b">
+        <v>1</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K107" t="b">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr">
         <is>
           <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="2" t="n">
+      <c r="A108" t="n">
         <v>4</v>
       </c>
-      <c r="B108" s="2" t="inlineStr">
+      <c r="B108" t="inlineStr">
         <is>
           <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C108" s="2" t="inlineStr">
+      <c r="C108" t="inlineStr">
         <is>
           <t>with</t>
         </is>
       </c>
-      <c r="D108" s="2" t="n">
+      <c r="D108" t="n">
         <v>14</v>
       </c>
-      <c r="E108" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F108" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G108" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H108" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I108" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J108" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K108" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L108" s="2" t="inlineStr">
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G108" t="b">
+        <v>1</v>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I108" t="b">
+        <v>1</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K108" t="b">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="2" t="n">
+      <c r="A109" t="n">
         <v>4</v>
       </c>
-      <c r="B109" s="2" t="inlineStr">
+      <c r="B109" t="inlineStr">
         <is>
           <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C109" s="2" t="inlineStr">
+      <c r="C109" t="inlineStr">
         <is>
           <t>caution</t>
         </is>
       </c>
-      <c r="D109" s="2" t="n">
+      <c r="D109" t="n">
         <v>15</v>
       </c>
-      <c r="E109" s="2" t="inlineStr">
+      <c r="E109" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F109" s="2" t="inlineStr">
+      <c r="F109" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G109" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H109" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I109" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J109" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K109" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L109" s="2" t="inlineStr">
+      <c r="G109" t="b">
+        <v>1</v>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I109" t="b">
+        <v>1</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K109" t="b">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -6869,7 +6869,7 @@
       </c>
       <c r="F124" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G124" s="2" t="b">
@@ -6893,7 +6893,7 @@
       </c>
       <c r="L124" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
@@ -7678,104 +7678,104 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="n">
+      <c r="A140" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B140" t="inlineStr">
+      <c r="B140" s="2" t="inlineStr">
         <is>
           <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C140" t="inlineStr">
+      <c r="C140" s="2" t="inlineStr">
         <is>
           <t>Compass</t>
         </is>
       </c>
-      <c r="D140" t="n">
-        <v>0</v>
-      </c>
-      <c r="E140" t="inlineStr">
+      <c r="D140" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E140" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F140" t="inlineStr">
+      <c r="F140" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G140" t="b">
-        <v>1</v>
-      </c>
-      <c r="H140" t="inlineStr">
+      <c r="G140" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H140" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I140" t="b">
-        <v>1</v>
-      </c>
-      <c r="J140" t="inlineStr">
+      <c r="I140" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J140" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K140" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L140" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B141" s="2" t="inlineStr">
+        <is>
+          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
+        </is>
+      </c>
+      <c r="C141" s="2" t="inlineStr">
+        <is>
+          <t>abnormal</t>
+        </is>
+      </c>
+      <c r="D141" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E141" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="F141" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G141" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H141" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="K140" t="b">
-        <v>1</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="n">
-        <v>6</v>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>abnormal</t>
-        </is>
-      </c>
-      <c r="D141" t="n">
-        <v>1</v>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G141" t="b">
-        <v>1</v>
-      </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I141" t="b">
-        <v>1</v>
-      </c>
-      <c r="J141" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K141" t="b">
-        <v>1</v>
-      </c>
-      <c r="L141" t="inlineStr">
+      <c r="I141" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J141" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K141" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L141" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -7805,7 +7805,7 @@
       </c>
       <c r="F142" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G142" s="2" t="b">
@@ -7817,11 +7817,11 @@
         </is>
       </c>
       <c r="I142" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J142" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K142" s="2" t="b">
@@ -7829,7 +7829,7 @@
       </c>
       <c r="L142" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -7857,7 +7857,7 @@
       </c>
       <c r="F143" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G143" s="2" t="b">
@@ -7881,7 +7881,7 @@
       </c>
       <c r="L143" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_I_as_B</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
